--- a/data/trans_dic/P57GLOBAL_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P57GLOBAL_R-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.8055547535337796</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.5488176067382794</v>
+        <v>0.5488176067382795</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.6816349909300072</v>
@@ -697,7 +697,7 @@
         <v>0.7977852483171806</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.5728739102051301</v>
+        <v>0.5728739102051302</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6456271764167958</v>
+        <v>0.6457298137365542</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6327036824868748</v>
+        <v>0.6335417688004826</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7463542805249411</v>
+        <v>0.7449262021094081</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5451773967087434</v>
+        <v>0.5504812272228677</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.616786367896661</v>
+        <v>0.6097799810400134</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6482529795313118</v>
+        <v>0.6522624819749396</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7613549611286266</v>
+        <v>0.7601928941066536</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.507124993242614</v>
+        <v>0.5083912980165922</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6475679304670302</v>
+        <v>0.6494992467801575</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6538037206456551</v>
+        <v>0.6491616783152405</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7665220802237964</v>
+        <v>0.7686221962115842</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.5439727153150141</v>
+        <v>0.5439151371896542</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7287407061823532</v>
+        <v>0.7327984475518642</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7242192489130026</v>
+        <v>0.7239811680006486</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8308978370109196</v>
+        <v>0.8292358194494625</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6394300544935381</v>
+        <v>0.6420992516195503</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7191133885927542</v>
+        <v>0.7229777555559466</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7560326316167882</v>
+        <v>0.7640485041324852</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8482160599559451</v>
+        <v>0.8469987888025252</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5871200788324061</v>
+        <v>0.5894584371824126</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.712781785340837</v>
+        <v>0.7145423822800979</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7243201531735677</v>
+        <v>0.721655495944911</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8250259549887825</v>
+        <v>0.8287388473589267</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6007750278873978</v>
+        <v>0.6029201408510551</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.7734641762119614</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6580855180069358</v>
+        <v>0.658085518006936</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.6803015863439261</v>
@@ -821,7 +821,7 @@
         <v>0.8008864068167423</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.6406872184694358</v>
+        <v>0.6406872184694359</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.6629727432643814</v>
@@ -833,7 +833,7 @@
         <v>0.787057071710776</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.6499796902736088</v>
+        <v>0.649979690273609</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5946958674730521</v>
+        <v>0.5938892011038752</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6271372718720992</v>
+        <v>0.6286383320098612</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.727186734120868</v>
+        <v>0.7262505423390943</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6117337091263391</v>
+        <v>0.6117072751621273</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6315593875101387</v>
+        <v>0.633522217746974</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6888104449155484</v>
+        <v>0.6856730810941946</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7576451082782784</v>
+        <v>0.7520615727594331</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5967734504035166</v>
+        <v>0.5992586152553478</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6269858545234369</v>
+        <v>0.6274947721703098</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.67094948449474</v>
+        <v>0.6639538070025309</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7559251645835754</v>
+        <v>0.7512344459333973</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.6179665869665133</v>
+        <v>0.6162283159844165</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6944981319924478</v>
+        <v>0.6962119959324325</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7280559068873512</v>
+        <v>0.7246080109884954</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8138924085982508</v>
+        <v>0.8154090392170067</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7032260886749051</v>
+        <v>0.7000066821962575</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7310155589185959</v>
+        <v>0.7279949307643701</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7865972627051976</v>
+        <v>0.7874342685681526</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8404089750059808</v>
+        <v>0.8405258405355176</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.682135674189007</v>
+        <v>0.6801818271215027</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6998317327196208</v>
+        <v>0.6984106923679959</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7426545927430012</v>
+        <v>0.7372230583009515</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8156284432588922</v>
+        <v>0.8157270093075764</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6797714003968788</v>
+        <v>0.6807958718939986</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.8650596606997951</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6500061828482735</v>
+        <v>0.6500061828482734</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.7159508673905898</v>
@@ -957,7 +957,7 @@
         <v>0.8803808027907944</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.6646610397270877</v>
+        <v>0.6646610397270876</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.7401092069166492</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7031305679312488</v>
+        <v>0.7069649281512372</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6455880239798261</v>
+        <v>0.6457052796361706</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8324410270891793</v>
+        <v>0.8321550158331644</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6038147260075104</v>
+        <v>0.6004686932270852</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6487739509531496</v>
+        <v>0.6430533896011459</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6657533211395265</v>
+        <v>0.6720611710777119</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8177319362052352</v>
+        <v>0.8274127949827044</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6057945588960456</v>
+        <v>0.6043377842683019</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7058946044909002</v>
+        <v>0.707463865065749</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6623427557427488</v>
+        <v>0.6639859214533776</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8433820569400061</v>
+        <v>0.8432817378584282</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6168878352658629</v>
+        <v>0.6162424323553333</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7832751903594093</v>
+        <v>0.78180764421013</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7177628486880432</v>
+        <v>0.7206552851731649</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8923808728830414</v>
+        <v>0.8936459422054375</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6921120203893624</v>
+        <v>0.6955718948935912</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7834750334200065</v>
+        <v>0.7794288361310742</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7800022452367996</v>
+        <v>0.7860890863165098</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9225156621842295</v>
+        <v>0.9264886055857209</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7284659590383137</v>
+        <v>0.7246677657714563</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7707349066837174</v>
+        <v>0.7740272980868286</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7278607450508419</v>
+        <v>0.7279865722108043</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8925126761082025</v>
+        <v>0.8954741967398594</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.6893324572005318</v>
+        <v>0.6911453438896179</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.8586969547719335</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.6482315446376676</v>
+        <v>0.6482315446376679</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.7348292740050415</v>
@@ -1105,7 +1105,7 @@
         <v>0.8370286000696651</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.6562847715333477</v>
+        <v>0.6562847715333475</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7017349963080525</v>
+        <v>0.701033502435447</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6743988013045596</v>
+        <v>0.6739781340143745</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.795929849670416</v>
+        <v>0.7998095815795033</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6296569225215126</v>
+        <v>0.6316509579983522</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7118773079692469</v>
+        <v>0.7113205419720929</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7683423648910154</v>
+        <v>0.7679475712059877</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.831957481031972</v>
+        <v>0.8336737411593815</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6209371400335829</v>
+        <v>0.6179130900351573</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7131289448626793</v>
+        <v>0.7153063491061068</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7189565293496532</v>
+        <v>0.7209261615061073</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.8202899726653146</v>
+        <v>0.8183123760097202</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.632878377291068</v>
+        <v>0.6364527300488433</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7544161737610807</v>
+        <v>0.7544211389885902</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7309294598534644</v>
+        <v>0.7285933624495835</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8428251177391025</v>
+        <v>0.8428980396342411</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6917986405505809</v>
+        <v>0.6928701086589322</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7770234692762452</v>
+        <v>0.779558165470855</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8277731902253898</v>
+        <v>0.8296930938596558</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8807580495001808</v>
+        <v>0.8825940611973588</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6791991909814621</v>
+        <v>0.6773364989952116</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.753609904931787</v>
+        <v>0.7544996971338275</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7603144417693755</v>
+        <v>0.7610181046534353</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8530354426696358</v>
+        <v>0.8523424234475615</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6775223516487893</v>
+        <v>0.6783378625251616</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.8726415269187353</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.7226112777496122</v>
+        <v>0.7226112777496123</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.7665513866295376</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6657586021806492</v>
+        <v>0.6683206535465566</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6860150206771958</v>
+        <v>0.6861818012795482</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8037170372909739</v>
+        <v>0.8014660575797398</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6565641959214138</v>
+        <v>0.6528514667608017</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7630838817557075</v>
+        <v>0.7574736425860967</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7407192518174383</v>
+        <v>0.733506905317687</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8465086826993449</v>
+        <v>0.8484497104863852</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6933651591575906</v>
+        <v>0.6954704663019432</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7354871349737746</v>
+        <v>0.7389529322606165</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7268190403575794</v>
+        <v>0.7264630359004582</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.8340486858917924</v>
+        <v>0.8361012353737722</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.6894967275136691</v>
+        <v>0.6878674636681517</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7645731644150779</v>
+        <v>0.7675479662656407</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7640351587310077</v>
+        <v>0.7634323462629907</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8647767956688367</v>
+        <v>0.8611295048543401</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7445362079622291</v>
+        <v>0.7425238948195673</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.82873564322014</v>
+        <v>0.826460612228561</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8023736675743618</v>
+        <v>0.798977305770483</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8975305869201001</v>
+        <v>0.8951496783823241</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7461668178718253</v>
+        <v>0.7502931554602418</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.7928551350846486</v>
+        <v>0.7946345259153228</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7783981617344045</v>
+        <v>0.7775889112018071</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8727605121947069</v>
+        <v>0.8754753366898683</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7356866838400876</v>
+        <v>0.7354322724126664</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.7918612522223233</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.4816096398977029</v>
+        <v>0.4816096398977031</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.7031044617327208</v>
@@ -1365,7 +1365,7 @@
         <v>0.8473411680924159</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.6560151624727196</v>
+        <v>0.6560151624727197</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.683635519556676</v>
@@ -1377,7 +1377,7 @@
         <v>0.8356716924807573</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.6174287999416485</v>
+        <v>0.6174287999416483</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5428074659284352</v>
+        <v>0.54629679491434</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.555168091253784</v>
+        <v>0.5612768836096023</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7431330754097552</v>
+        <v>0.742267476253862</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3790483497071777</v>
+        <v>0.3731698276874506</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6781173627849831</v>
+        <v>0.6780145337794765</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.7041563482599996</v>
+        <v>0.7039881899973293</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8244651974273165</v>
+        <v>0.825078072552852</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.6197512902073891</v>
+        <v>0.6234995706255325</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.660776219191563</v>
+        <v>0.65849586378952</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.6821333144747288</v>
+        <v>0.6850753028695608</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.8139487494074839</v>
+        <v>0.814091622288869</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.5816930710552812</v>
+        <v>0.5778513693519541</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6502038721375476</v>
+        <v>0.6531149671307416</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6706552745965542</v>
+        <v>0.6767794174555605</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8427431622857794</v>
+        <v>0.8380125150818079</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5876417681984287</v>
+        <v>0.5860356550339098</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.7291342838872819</v>
+        <v>0.7285166678926039</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7594457271867483</v>
+        <v>0.7585774575873084</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8683071093295033</v>
+        <v>0.8684199570269804</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6890630876304269</v>
+        <v>0.6891571742234425</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7069340586394223</v>
+        <v>0.7064652439734521</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.7327940635861568</v>
+        <v>0.7318937071544143</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.8539808923302986</v>
+        <v>0.8546966058024921</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6516069558211923</v>
+        <v>0.6526331179093323</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.8189218168802138</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6425899021322748</v>
+        <v>0.642589902132275</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.7228428396532305</v>
@@ -1513,7 +1513,7 @@
         <v>0.8336878463124118</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.6481678167265277</v>
+        <v>0.6481678167265276</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6880844250122771</v>
+        <v>0.6877355301203972</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6728057551312498</v>
+        <v>0.6728455131443362</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8049666260409403</v>
+        <v>0.8046344441318671</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6247111207372237</v>
+        <v>0.6215165343632428</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7061530978090105</v>
+        <v>0.707408617464231</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.738144045358856</v>
+        <v>0.7381518926703905</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8358315533224376</v>
+        <v>0.8350506446708356</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6399991548994728</v>
+        <v>0.6372534979433608</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7014631244172451</v>
+        <v>0.7019628031804036</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.7119696318825297</v>
+        <v>0.7106238333054903</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.8240221640511521</v>
+        <v>0.8250290791641273</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.6358904685521817</v>
+        <v>0.6353286150381713</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7191906693398742</v>
+        <v>0.7204661725904263</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7061431938085786</v>
+        <v>0.7051918041969033</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8312675933710532</v>
+        <v>0.8321999769525367</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6641843904909542</v>
+        <v>0.6607657617099343</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7380268780292126</v>
+        <v>0.738048907018802</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7670673305738197</v>
+        <v>0.7667659329000556</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8602547858533441</v>
+        <v>0.8600802434402147</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6695397726542963</v>
+        <v>0.666671879761048</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7254709979949677</v>
+        <v>0.7246326604408158</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.7325162276217216</v>
+        <v>0.7324650131981192</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.8417335865601518</v>
+        <v>0.8421963351218172</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.6587753819911493</v>
+        <v>0.6600685706192725</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>304052</v>
+        <v>304101</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>275406</v>
+        <v>275771</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>319609</v>
+        <v>318998</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>295271</v>
+        <v>298144</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>188446</v>
+        <v>186305</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>201008</v>
+        <v>202251</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>259961</v>
+        <v>259564</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>245107</v>
+        <v>245719</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>502817</v>
+        <v>504317</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>487319</v>
+        <v>483859</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>589971</v>
+        <v>591587</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>557535</v>
+        <v>557476</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>343194</v>
+        <v>345105</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>315241</v>
+        <v>315137</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>355813</v>
+        <v>355101</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>346319</v>
+        <v>347765</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>219710</v>
+        <v>220891</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>234428</v>
+        <v>236913</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>289619</v>
+        <v>289204</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>283770</v>
+        <v>284901</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>553454</v>
+        <v>554821</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>539879</v>
+        <v>537893</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>634999</v>
+        <v>637857</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>615754</v>
+        <v>617952</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>217292</v>
+        <v>216998</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>260624</v>
+        <v>261248</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>271312</v>
+        <v>270963</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>292527</v>
+        <v>292515</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>234855</v>
+        <v>235585</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>230302</v>
+        <v>229253</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>277843</v>
+        <v>275795</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>248932</v>
+        <v>249968</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>462245</v>
+        <v>462620</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>503163</v>
+        <v>497917</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>559246</v>
+        <v>555776</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>553280</v>
+        <v>551723</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>253759</v>
+        <v>254385</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>302564</v>
+        <v>301131</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>303662</v>
+        <v>304227</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>336278</v>
+        <v>334739</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>271839</v>
+        <v>270716</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>262997</v>
+        <v>263277</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>308194</v>
+        <v>308237</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>284539</v>
+        <v>283724</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>515950</v>
+        <v>514903</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>556937</v>
+        <v>552863</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>603416</v>
+        <v>603489</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>608615</v>
+        <v>609532</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>380777</v>
+        <v>382853</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>401510</v>
+        <v>401583</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>433658</v>
+        <v>433509</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>279987</v>
+        <v>278436</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>108217</v>
+        <v>107263</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>172559</v>
+        <v>174194</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>132950</v>
+        <v>134524</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>111687</v>
+        <v>111418</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>500018</v>
+        <v>501130</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>583605</v>
+        <v>585053</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>576479</v>
+        <v>576410</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>399781</v>
+        <v>399363</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>424179</v>
+        <v>423384</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>446398</v>
+        <v>448196</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>464884</v>
+        <v>465543</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>320930</v>
+        <v>322535</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>130685</v>
+        <v>130010</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>202171</v>
+        <v>203749</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>149986</v>
+        <v>150632</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>134303</v>
+        <v>133603</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>545948</v>
+        <v>548280</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>641334</v>
+        <v>641445</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>610061</v>
+        <v>612085</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>446729</v>
+        <v>447904</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>868982</v>
+        <v>868114</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>771041</v>
+        <v>770560</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>904588</v>
+        <v>908997</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>705824</v>
+        <v>708059</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>508483</v>
+        <v>508086</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>584497</v>
+        <v>584197</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>681599</v>
+        <v>683006</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>524685</v>
+        <v>522130</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1392470</v>
+        <v>1396721</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1368912</v>
+        <v>1372662</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1604314</v>
+        <v>1600446</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1244210</v>
+        <v>1251237</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>934219</v>
+        <v>934225</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>835672</v>
+        <v>833002</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>957885</v>
+        <v>957968</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>775483</v>
+        <v>776684</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>555016</v>
+        <v>556827</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>629708</v>
+        <v>631168</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>721580</v>
+        <v>723085</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>573916</v>
+        <v>572342</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1471514</v>
+        <v>1473251</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1447658</v>
+        <v>1448998</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1668357</v>
+        <v>1667002</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1331978</v>
+        <v>1333582</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>233385</v>
+        <v>234283</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>343282</v>
+        <v>343365</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>493788</v>
+        <v>492406</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>364920</v>
+        <v>362856</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>433246</v>
+        <v>430061</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>557190</v>
+        <v>551764</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>619092</v>
+        <v>620511</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>563517</v>
+        <v>565228</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>675407</v>
+        <v>678589</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>910434</v>
+        <v>909988</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1122403</v>
+        <v>1125165</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>943596</v>
+        <v>941367</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>268025</v>
+        <v>269068</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>382323</v>
+        <v>382022</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>531302</v>
+        <v>529062</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>413815</v>
+        <v>412696</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>470520</v>
+        <v>469229</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>603568</v>
+        <v>601013</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>656406</v>
+        <v>654665</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>606430</v>
+        <v>609784</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>728088</v>
+        <v>729722</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>975043</v>
+        <v>974030</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1174498</v>
+        <v>1178152</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1006809</v>
+        <v>1006460</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>161411</v>
+        <v>162448</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>147115</v>
+        <v>148733</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>212680</v>
+        <v>212432</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>88895</v>
+        <v>87517</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>846806</v>
+        <v>846677</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>773952</v>
+        <v>773767</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>885847</v>
+        <v>886505</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>511597</v>
+        <v>514691</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1021641</v>
+        <v>1018116</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>930504</v>
+        <v>934517</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>1107494</v>
+        <v>1107689</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>616599</v>
+        <v>612527</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>193347</v>
+        <v>194212</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>177718</v>
+        <v>179340</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>241188</v>
+        <v>239834</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>137815</v>
+        <v>137438</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>910514</v>
+        <v>909742</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>834721</v>
+        <v>833767</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>932953</v>
+        <v>933074</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>568813</v>
+        <v>568890</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1093007</v>
+        <v>1092282</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>999611</v>
+        <v>998383</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>1161964</v>
+        <v>1162938</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>690709</v>
+        <v>691796</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2245992</v>
+        <v>2244853</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2275081</v>
+        <v>2275216</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2704176</v>
+        <v>2703060</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2120761</v>
+        <v>2109916</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2383265</v>
+        <v>2387503</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2595086</v>
+        <v>2595113</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2921915</v>
+        <v>2919185</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2283531</v>
+        <v>2273735</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>4657099</v>
+        <v>4660416</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>4910577</v>
+        <v>4901295</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>5648822</v>
+        <v>5655724</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>4427585</v>
+        <v>4423672</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2347527</v>
+        <v>2351690</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2387811</v>
+        <v>2384594</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2792530</v>
+        <v>2795663</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>2254765</v>
+        <v>2243159</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>2490839</v>
+        <v>2490914</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2696771</v>
+        <v>2695711</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>3007294</v>
+        <v>3006684</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>2388933</v>
+        <v>2378700</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>4816490</v>
+        <v>4810924</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>5052290</v>
+        <v>5051937</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>5770237</v>
+        <v>5773409</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>4586928</v>
+        <v>4595932</v>
       </c>
     </row>
     <row r="32">
